--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E408D7-D91D-430F-B6AE-A8F3C9E09F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010D25D8-80DB-4E2C-8FC6-D9F361C9B4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4755" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +488,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,7 +1071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1245,9 +1251,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,14 +1272,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3956,7 +3965,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="7030A0"/>
+          <a:schemeClr val="accent6"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -9886,8 +9895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10097,13 +10106,13 @@
       <c r="I11" s="16">
         <v>16</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="77">
         <v>17</v>
       </c>
       <c r="K11" s="16">
         <v>18</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="78">
         <v>19</v>
       </c>
       <c r="M11" s="16">
@@ -10223,7 +10232,7 @@
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="74" t="s">
         <v>92</v>
       </c>
       <c r="C15" s="39">
@@ -10250,7 +10259,7 @@
         <f t="shared" ref="A16:A34" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="74" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="39">
@@ -10385,7 +10394,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="74" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="39">
@@ -10412,7 +10421,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="74" t="s">
         <v>101</v>
       </c>
       <c r="C22" s="39">
@@ -10520,7 +10529,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="74" t="s">
         <v>105</v>
       </c>
       <c r="C26" s="39">
@@ -10547,7 +10556,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="74" t="s">
         <v>106</v>
       </c>
       <c r="C27" s="39">
@@ -10574,7 +10583,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="74" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="39">
@@ -10681,7 +10690,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="74" t="s">
         <v>110</v>
       </c>
       <c r="C32" s="39">
@@ -10913,7 +10922,7 @@
       <c r="Q40" s="11"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="68">
+      <c r="A41" s="67">
         <f>A40+1</f>
         <v>28</v>
       </c>
@@ -10939,29 +10948,29 @@
       <c r="Q41" s="11"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="69">
+      <c r="A42" s="68">
         <f>A41+1</f>
         <v>29</v>
       </c>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="71">
+      <c r="C42" s="70">
         <v>2</v>
       </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="74"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="73"/>
       <c r="Q42" s="11"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010D25D8-80DB-4E2C-8FC6-D9F361C9B4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71209795-681B-4BF2-A05B-ABFFB1ABC9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4755" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Project Plan V1.0 (eng.)" sheetId="5" r:id="rId3"/>
     <sheet name="Resulting objects" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -487,13 +487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,7 +1071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1143,9 +1143,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,9 +1255,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1272,8 +1266,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1281,11 +1275,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9432,7 +9441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -9479,11 +9488,11 @@
       <c r="I6" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -9491,26 +9500,26 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -9727,12 +9736,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -9777,12 +9786,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -9895,8 +9904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10029,21 +10038,21 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -10106,13 +10115,13 @@
       <c r="I11" s="16">
         <v>16</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="72">
         <v>17</v>
       </c>
       <c r="K11" s="16">
         <v>18</v>
       </c>
-      <c r="L11" s="78">
+      <c r="L11" s="75">
         <v>19</v>
       </c>
       <c r="M11" s="16">
@@ -10127,7 +10136,12 @@
       <c r="P11" s="17">
         <v>23</v>
       </c>
-      <c r="Q11" s="11"/>
+      <c r="Q11" s="76">
+        <v>24</v>
+      </c>
+      <c r="R11" s="77">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
@@ -10205,616 +10219,616 @@
       <c r="A14" s="29">
         <v>1</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="30">
         <v>2</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="36"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+      <c r="A15" s="36">
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="38">
         <v>1</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="36"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="35"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
+      <c r="A16" s="36">
         <f t="shared" ref="A16:A34" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="38">
         <v>1.5</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="36"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="35"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+      <c r="A17" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="38">
         <v>3</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="64"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="63"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="A18" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="38">
         <v>6</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="36"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="35"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
+      <c r="A19" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="38">
         <v>2</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="36"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="35"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
+      <c r="A20" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="38">
         <v>2</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="36"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="35"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="37">
+      <c r="A21" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="38">
         <v>2</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="36"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="35"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="37">
+      <c r="A22" s="36">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="38">
         <v>2</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="36"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="35"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="37">
+      <c r="A23" s="36">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="38">
         <v>3</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="36"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="35"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
+      <c r="A24" s="36">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="38">
         <v>8</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="36"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="35"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
+      <c r="A25" s="36">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="38">
         <v>2</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="36"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="35"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
+      <c r="A26" s="36">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="38">
         <v>2</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="36"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="35"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
+      <c r="A27" s="36">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="38">
         <v>2</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="36"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="37">
+      <c r="A28" s="36">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="38">
         <v>3</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="36"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
+      <c r="A29" s="36">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="38">
         <v>3</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="36"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="35"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="37">
+      <c r="A30" s="36">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="38">
         <v>4</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="36"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="35"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="63">
+      <c r="C31" s="62">
         <v>2</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="34"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="33"/>
       <c r="Q31" s="11"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
+      <c r="A32" s="36">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="38">
         <v>2</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="42"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="41"/>
       <c r="Q32" s="11"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="37">
+      <c r="A33" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="38">
         <v>2</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="42"/>
-      <c r="R33" s="36"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
+      <c r="R33" s="35"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="37">
+      <c r="A34" s="36">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="38">
         <v>8</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="36"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="35"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <f t="shared" ref="A35:A39" si="1">A34+1</f>
         <v>22</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="63">
+      <c r="C35" s="62">
         <v>1</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="36"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="35"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="37">
+      <c r="A36" s="36">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="38">
         <v>2</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="42"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
       <c r="Q36" s="11"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -10822,51 +10836,51 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="63">
+      <c r="C37" s="62">
         <v>2</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="34"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="33"/>
       <c r="Q37" s="11"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="37">
+      <c r="A38" s="36">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="38">
         <v>8</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="42"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="41"/>
       <c r="Q38" s="11"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -10874,103 +10888,103 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="63">
+      <c r="C39" s="62">
         <v>1</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="34"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="33"/>
       <c r="Q39" s="11"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="37">
+      <c r="A40" s="36">
         <f>A39+1</f>
         <v>27</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="38">
         <v>1</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="42"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="41"/>
       <c r="Q40" s="11"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="67">
+      <c r="A41" s="66">
         <f>A40+1</f>
         <v>28</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="39">
+      <c r="C41" s="38">
         <v>1</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="42"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
       <c r="Q41" s="11"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="68">
+      <c r="A42" s="67">
         <f>A41+1</f>
         <v>29</v>
       </c>
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="70">
+      <c r="C42" s="68">
         <v>2</v>
       </c>
-      <c r="D42" s="71"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="73"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="71"/>
       <c r="Q42" s="11"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10981,64 +10995,64 @@
     </row>
     <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="51" t="s">
+      <c r="A50" s="49"/>
+      <c r="B50" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="55"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="54"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="38" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="62"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="61"/>
     </row>
     <row r="52" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="43"/>
-      <c r="B52" s="44" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="48"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="47"/>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
@@ -11058,7 +11072,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="35" t="s">
         <v>99</v>
       </c>
       <c r="D54" s="11"/>
@@ -11093,7 +11107,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="56" t="s">
         <v>62</v>
       </c>
       <c r="D56" s="11"/>
@@ -11112,7 +11126,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="56" t="s">
         <v>63</v>
       </c>
       <c r="D57" s="11"/>
@@ -11122,7 +11136,7 @@
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="58"/>
+      <c r="K57" s="57"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
@@ -11267,21 +11281,21 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -11437,393 +11451,393 @@
       <c r="A14" s="29">
         <v>1</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="30">
         <v>2.5</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="34"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="33"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+      <c r="A15" s="36">
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="38">
         <v>1</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="42"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="41"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
+      <c r="A16" s="36">
         <f t="shared" ref="A16:A30" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="42"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="41"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+      <c r="A17" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39">
+      <c r="B17" s="37"/>
+      <c r="C17" s="38">
         <v>2</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="42"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="A18" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="42"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="37">
+      <c r="A19" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="42"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="41"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
+      <c r="A20" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="42"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="41"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="37">
+      <c r="A21" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="42"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="41"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="37">
+      <c r="A22" s="36">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="42"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="41"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="37">
+      <c r="A23" s="36">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="42"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="41"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
+      <c r="A24" s="36">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="42"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="41"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
+      <c r="A25" s="36">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="42"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="41"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
+      <c r="A26" s="36">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="42"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="41"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
+      <c r="A27" s="36">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="42"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="37">
+      <c r="A28" s="36">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="38">
         <v>2</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="42"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
+      <c r="A29" s="36">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="38">
         <v>1.5</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="42"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43">
+      <c r="A30" s="42">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="44">
         <v>1</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="48"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="47"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="C31" s="49"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -11840,7 +11854,7 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="C32" s="49"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -11856,74 +11870,74 @@
       <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="51" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54" t="s">
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54" t="s">
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54" t="s">
+      <c r="L33" s="53"/>
+      <c r="M33" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="55"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41" t="s">
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="56" t="s">
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="P34" s="42"/>
+      <c r="P34" s="41"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="48"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="47"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
@@ -11975,7 +11989,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="56" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="11"/>
@@ -12001,7 +12015,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="58" t="s">
+      <c r="K40" s="57" t="s">
         <v>84</v>
       </c>
       <c r="L40" s="11"/>
@@ -12012,7 +12026,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="57"/>
+      <c r="B41" s="56"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -12135,11 +12149,11 @@
       <c r="I12" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">

--- a/Projektplan.xlsx
+++ b/Projektplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71209795-681B-4BF2-A05B-ABFFB1ABC9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C89CBCC-CC4F-4B75-8F36-69F9424BCD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4755" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Project Plan V1.0 (eng.)" sheetId="5" r:id="rId3"/>
     <sheet name="Resulting objects" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -460,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,31 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1242,12 +1218,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1266,7 +1236,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1275,26 +1248,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9488,11 +9452,11 @@
       <c r="I6" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -9514,12 +9478,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -9736,12 +9700,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -9786,12 +9750,12 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -9904,8 +9868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10038,21 +10002,21 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -10115,13 +10079,13 @@
       <c r="I11" s="16">
         <v>16</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="70">
         <v>17</v>
       </c>
       <c r="K11" s="16">
         <v>18</v>
       </c>
-      <c r="L11" s="75">
+      <c r="L11" s="71">
         <v>19</v>
       </c>
       <c r="M11" s="16">
@@ -10136,12 +10100,8 @@
       <c r="P11" s="17">
         <v>23</v>
       </c>
-      <c r="Q11" s="76">
-        <v>24</v>
-      </c>
-      <c r="R11" s="77">
-        <v>25</v>
-      </c>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
@@ -10219,7 +10179,7 @@
       <c r="A14" s="29">
         <v>1</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="74" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="30">
@@ -10246,7 +10206,7 @@
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="75" t="s">
         <v>92</v>
       </c>
       <c r="C15" s="38">
@@ -10273,7 +10233,7 @@
         <f t="shared" ref="A16:A34" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="75" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="38">
@@ -10300,7 +10260,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="75" t="s">
         <v>113</v>
       </c>
       <c r="C17" s="38">
@@ -10327,7 +10287,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="75" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="38">
@@ -10354,7 +10314,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="75" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="38">
@@ -10381,7 +10341,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="75" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="38">
@@ -10408,7 +10368,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="75" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="38">
@@ -10435,7 +10395,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="75" t="s">
         <v>101</v>
       </c>
       <c r="C22" s="38">
@@ -10462,7 +10422,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="75" t="s">
         <v>103</v>
       </c>
       <c r="C23" s="38">
@@ -10489,7 +10449,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="75" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="38">
@@ -10516,7 +10476,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="75" t="s">
         <v>104</v>
       </c>
       <c r="C25" s="38">
@@ -10543,7 +10503,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="75" t="s">
         <v>105</v>
       </c>
       <c r="C26" s="38">
@@ -10570,7 +10530,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="75" t="s">
         <v>106</v>
       </c>
       <c r="C27" s="38">
@@ -10597,7 +10557,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="75" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="38">
@@ -10624,7 +10584,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="75" t="s">
         <v>119</v>
       </c>
       <c r="C29" s="38">
@@ -10651,7 +10611,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="75" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="38">
@@ -10678,7 +10638,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="74" t="s">
         <v>109</v>
       </c>
       <c r="C31" s="62">
@@ -10704,7 +10664,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="75" t="s">
         <v>110</v>
       </c>
       <c r="C32" s="38">
@@ -10730,7 +10690,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="75" t="s">
         <v>118</v>
       </c>
       <c r="C33" s="38">
@@ -10756,7 +10716,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="75" t="s">
         <v>111</v>
       </c>
       <c r="C34" s="38">
@@ -10783,7 +10743,7 @@
         <f t="shared" ref="A35:A39" si="1">A34+1</f>
         <v>22</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="74" t="s">
         <v>114</v>
       </c>
       <c r="C35" s="62">
@@ -10810,7 +10770,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="75" t="s">
         <v>115</v>
       </c>
       <c r="C36" s="38">
@@ -10836,7 +10796,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="74" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="62">
@@ -10862,7 +10822,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="75" t="s">
         <v>120</v>
       </c>
       <c r="C38" s="38">
@@ -10888,7 +10848,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="74" t="s">
         <v>59</v>
       </c>
       <c r="C39" s="62">
@@ -10914,7 +10874,7 @@
         <f>A39+1</f>
         <v>27</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="75" t="s">
         <v>97</v>
       </c>
       <c r="C40" s="38">
@@ -10936,11 +10896,11 @@
       <c r="Q40" s="11"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="66">
+      <c r="A41" s="64">
         <f>A40+1</f>
         <v>28</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="75" t="s">
         <v>117</v>
       </c>
       <c r="C41" s="38">
@@ -10962,29 +10922,29 @@
       <c r="Q41" s="11"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67">
+      <c r="A42" s="65">
         <f>A41+1</f>
         <v>29</v>
       </c>
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="68">
+      <c r="C42" s="66">
         <v>2</v>
       </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="71"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="69"/>
       <c r="Q42" s="11"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -11281,21 +11241,21 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -12149,11 +12109,11 @@
       <c r="I12" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
